--- a/ML.xlsx
+++ b/ML.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="22995" windowHeight="6735"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="22995" windowHeight="6735" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="LinearRegression" sheetId="1" r:id="rId1"/>
+    <sheet name="CrossEntropy" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
   <si>
     <t>X</t>
   </si>
@@ -88,6 +88,9 @@
   </si>
   <si>
     <t>guess</t>
+  </si>
+  <si>
+    <t>Cross Entropy:</t>
   </si>
 </sst>
 </file>
@@ -193,7 +196,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$W$2</c:f>
+              <c:f>LinearRegression!$W$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -204,7 +207,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$V$3:$V$12</c:f>
+              <c:f>LinearRegression!$V$3:$V$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -243,7 +246,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$W$3:$W$12</c:f>
+              <c:f>LinearRegression!$W$3:$W$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -290,11 +293,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="272424960"/>
-        <c:axId val="345521472"/>
+        <c:axId val="40430400"/>
+        <c:axId val="40430976"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="272424960"/>
+        <c:axId val="40430400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -304,12 +307,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="345521472"/>
+        <c:crossAx val="40430976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="345521472"/>
+        <c:axId val="40430976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -320,7 +323,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="272424960"/>
+        <c:crossAx val="40430400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -661,8 +664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U27" sqref="U27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -742,6 +745,7 @@
         <v>1</v>
       </c>
       <c r="C3">
+        <f>B3*2</f>
         <v>2</v>
       </c>
       <c r="D3" s="2">
@@ -774,7 +778,7 @@
         <v>4</v>
       </c>
       <c r="N3">
-        <f>AVERAGEIFS(K:K,H:H,H3)</f>
+        <f t="shared" ref="N3:N42" si="0">AVERAGEIFS(K:K,H:H,H3)</f>
         <v>0</v>
       </c>
       <c r="O3">
@@ -790,13 +794,14 @@
         <v>-4</v>
       </c>
       <c r="R3">
-        <f>SUMIFS(Q:Q,H:H,H3)</f>
+        <f t="shared" ref="R3:R42" si="1">SUMIFS(Q:Q,H:H,H3)</f>
         <v>-120</v>
       </c>
       <c r="V3">
         <v>1</v>
       </c>
       <c r="W3">
+        <f>VLOOKUP(V3,H:K,4,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -808,6 +813,7 @@
         <v>2</v>
       </c>
       <c r="C4">
+        <f t="shared" ref="C4:C6" si="2">B4*2</f>
         <v>4</v>
       </c>
       <c r="H4">
@@ -822,7 +828,7 @@
         <v>4</v>
       </c>
       <c r="K4" s="2">
-        <f t="shared" ref="K4:K6" si="0">$D$3</f>
+        <f t="shared" ref="K4:K6" si="3">$D$3</f>
         <v>0</v>
       </c>
       <c r="L4">
@@ -830,33 +836,34 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <f t="shared" ref="M4:M10" si="1">(J4-L4)^2</f>
+        <f t="shared" ref="M4:M10" si="4">(J4-L4)^2</f>
         <v>16</v>
       </c>
       <c r="N4">
-        <f>AVERAGEIFS(K:K,H:H,H4)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O4">
-        <f t="shared" ref="O4:O10" si="2">2*I4</f>
+        <f t="shared" ref="O4:O10" si="5">2*I4</f>
         <v>4</v>
       </c>
       <c r="P4">
-        <f t="shared" ref="P4:P10" si="3">L4-J4</f>
+        <f t="shared" ref="P4:P10" si="6">L4-J4</f>
         <v>-4</v>
       </c>
       <c r="Q4">
-        <f t="shared" ref="Q4:Q10" si="4">O4*P4</f>
+        <f t="shared" ref="Q4:Q10" si="7">O4*P4</f>
         <v>-16</v>
       </c>
       <c r="R4">
-        <f>SUMIFS(Q:Q,H:H,H4)</f>
+        <f t="shared" si="1"/>
         <v>-120</v>
       </c>
       <c r="V4">
         <v>2</v>
       </c>
       <c r="W4">
+        <f t="shared" ref="W4:W12" si="8">VLOOKUP(V4,H:K,4,0)</f>
         <v>1.2</v>
       </c>
     </row>
@@ -868,6 +875,7 @@
         <v>3</v>
       </c>
       <c r="C5">
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="H5">
@@ -882,7 +890,7 @@
         <v>6</v>
       </c>
       <c r="K5" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L5">
@@ -890,33 +898,34 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>36</v>
       </c>
       <c r="N5">
-        <f>AVERAGEIFS(K:K,H:H,H5)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="P5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-6</v>
       </c>
       <c r="Q5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-36</v>
       </c>
       <c r="R5">
-        <f>SUMIFS(Q:Q,H:H,H5)</f>
+        <f t="shared" si="1"/>
         <v>-120</v>
       </c>
       <c r="V5">
         <v>3</v>
       </c>
       <c r="W5">
+        <f t="shared" si="8"/>
         <v>1.68</v>
       </c>
     </row>
@@ -928,6 +937,7 @@
         <v>4</v>
       </c>
       <c r="C6">
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="H6">
@@ -942,7 +952,7 @@
         <v>8</v>
       </c>
       <c r="K6" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L6">
@@ -950,33 +960,34 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>64</v>
       </c>
       <c r="N6">
-        <f>AVERAGEIFS(K:K,H:H,H6)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="P6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-8</v>
       </c>
       <c r="Q6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-64</v>
       </c>
       <c r="R6">
-        <f>SUMIFS(Q:Q,H:H,H6)</f>
+        <f t="shared" si="1"/>
         <v>-120</v>
       </c>
       <c r="V6">
         <v>4</v>
       </c>
       <c r="W6">
+        <f t="shared" si="8"/>
         <v>1.8719999999999999</v>
       </c>
     </row>
@@ -997,15 +1008,15 @@
         <v>1.2</v>
       </c>
       <c r="L7">
-        <f t="shared" ref="L7:L10" si="5">K7*I7</f>
+        <f t="shared" ref="L7:L10" si="9">K7*I7</f>
         <v>1.2</v>
       </c>
       <c r="M7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.64000000000000012</v>
       </c>
       <c r="N7">
-        <f>AVERAGEIFS(K:K,H:H,H7)</f>
+        <f t="shared" si="0"/>
         <v>1.2</v>
       </c>
       <c r="O7">
@@ -1021,13 +1032,14 @@
         <v>-1.6</v>
       </c>
       <c r="R7">
-        <f>SUMIFS(Q:Q,H:H,H7)</f>
+        <f t="shared" si="1"/>
         <v>-48</v>
       </c>
       <c r="V7">
         <v>5</v>
       </c>
       <c r="W7">
+        <f t="shared" si="8"/>
         <v>1.9487999999999999</v>
       </c>
     </row>
@@ -1044,41 +1056,42 @@
         <v>4</v>
       </c>
       <c r="K8" s="1">
-        <f t="shared" ref="K8:K14" si="6">K4-$E$3*R4</f>
+        <f t="shared" ref="K8:K14" si="10">K4-$E$3*R4</f>
         <v>1.2</v>
       </c>
       <c r="L8">
+        <f t="shared" si="9"/>
+        <v>2.4</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="4"/>
+        <v>2.5600000000000005</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+      <c r="O8">
         <f t="shared" si="5"/>
-        <v>2.4</v>
-      </c>
-      <c r="M8">
-        <f t="shared" si="1"/>
-        <v>2.5600000000000005</v>
-      </c>
-      <c r="N8">
-        <f>AVERAGEIFS(K:K,H:H,H8)</f>
-        <v>1.2</v>
-      </c>
-      <c r="O8">
-        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="P8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-1.6</v>
       </c>
       <c r="Q8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-6.4</v>
       </c>
       <c r="R8">
-        <f>SUMIFS(Q:Q,H:H,H8)</f>
+        <f t="shared" si="1"/>
         <v>-48</v>
       </c>
       <c r="V8">
         <v>6</v>
       </c>
       <c r="W8">
+        <f t="shared" si="8"/>
         <v>1.9795199999999999</v>
       </c>
     </row>
@@ -1101,41 +1114,42 @@
         <v>6</v>
       </c>
       <c r="K9" s="1">
+        <f t="shared" si="10"/>
+        <v>1.2</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="9"/>
+        <v>3.5999999999999996</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="4"/>
+        <v>5.7600000000000016</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="P9">
         <f t="shared" si="6"/>
-        <v>1.2</v>
-      </c>
-      <c r="L9">
-        <f t="shared" si="5"/>
-        <v>3.5999999999999996</v>
-      </c>
-      <c r="M9">
-        <f t="shared" si="1"/>
-        <v>5.7600000000000016</v>
-      </c>
-      <c r="N9">
-        <f>AVERAGEIFS(K:K,H:H,H9)</f>
-        <v>1.2</v>
-      </c>
-      <c r="O9">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="P9">
-        <f t="shared" si="3"/>
         <v>-2.4000000000000004</v>
       </c>
       <c r="Q9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-14.400000000000002</v>
       </c>
       <c r="R9">
-        <f>SUMIFS(Q:Q,H:H,H9)</f>
+        <f t="shared" si="1"/>
         <v>-48</v>
       </c>
       <c r="V9">
         <v>7</v>
       </c>
       <c r="W9">
+        <f t="shared" si="8"/>
         <v>1.991808</v>
       </c>
     </row>
@@ -1158,41 +1172,42 @@
         <v>8</v>
       </c>
       <c r="K10" s="1">
+        <f t="shared" si="10"/>
+        <v>1.2</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="9"/>
+        <v>4.8</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="4"/>
+        <v>10.240000000000002</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="P10">
         <f t="shared" si="6"/>
-        <v>1.2</v>
-      </c>
-      <c r="L10">
-        <f t="shared" si="5"/>
-        <v>4.8</v>
-      </c>
-      <c r="M10">
-        <f t="shared" si="1"/>
-        <v>10.240000000000002</v>
-      </c>
-      <c r="N10">
-        <f>AVERAGEIFS(K:K,H:H,H10)</f>
-        <v>1.2</v>
-      </c>
-      <c r="O10">
-        <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="P10">
-        <f t="shared" si="3"/>
         <v>-3.2</v>
       </c>
       <c r="Q10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-25.6</v>
       </c>
       <c r="R10">
-        <f>SUMIFS(Q:Q,H:H,H10)</f>
+        <f t="shared" si="1"/>
         <v>-48</v>
       </c>
       <c r="V10">
         <v>8</v>
       </c>
       <c r="W10">
+        <f t="shared" si="8"/>
         <v>1.9967231999999999</v>
       </c>
     </row>
@@ -1209,41 +1224,42 @@
         <v>2</v>
       </c>
       <c r="K11" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1.68</v>
       </c>
       <c r="L11">
-        <f t="shared" ref="L11:L14" si="7">K11*I11</f>
+        <f t="shared" ref="L11:L14" si="11">K11*I11</f>
         <v>1.68</v>
       </c>
       <c r="M11">
-        <f t="shared" ref="M11:M14" si="8">(J11-L11)^2</f>
+        <f t="shared" ref="M11:M14" si="12">(J11-L11)^2</f>
         <v>0.10240000000000005</v>
       </c>
       <c r="N11">
-        <f>AVERAGEIFS(K:K,H:H,H11)</f>
+        <f t="shared" si="0"/>
         <v>1.68</v>
       </c>
       <c r="O11">
-        <f t="shared" ref="O11:O14" si="9">2*I11</f>
+        <f t="shared" ref="O11:O14" si="13">2*I11</f>
         <v>2</v>
       </c>
       <c r="P11">
-        <f t="shared" ref="P11:P14" si="10">L11-J11</f>
+        <f t="shared" ref="P11:P14" si="14">L11-J11</f>
         <v>-0.32000000000000006</v>
       </c>
       <c r="Q11">
-        <f t="shared" ref="Q11:Q14" si="11">O11*P11</f>
+        <f t="shared" ref="Q11:Q14" si="15">O11*P11</f>
         <v>-0.64000000000000012</v>
       </c>
       <c r="R11">
-        <f>SUMIFS(Q:Q,H:H,H11)</f>
+        <f t="shared" si="1"/>
         <v>-19.200000000000003</v>
       </c>
       <c r="V11">
         <v>9</v>
       </c>
       <c r="W11">
+        <f t="shared" si="8"/>
         <v>1.99868928</v>
       </c>
     </row>
@@ -1260,41 +1276,42 @@
         <v>4</v>
       </c>
       <c r="K12" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1.68</v>
       </c>
       <c r="L12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>3.36</v>
       </c>
       <c r="M12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0.40960000000000019</v>
       </c>
       <c r="N12">
-        <f>AVERAGEIFS(K:K,H:H,H12)</f>
+        <f t="shared" si="0"/>
         <v>1.68</v>
       </c>
       <c r="O12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="P12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>-0.64000000000000012</v>
       </c>
       <c r="Q12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>-2.5600000000000005</v>
       </c>
       <c r="R12">
-        <f>SUMIFS(Q:Q,H:H,H12)</f>
+        <f t="shared" si="1"/>
         <v>-19.200000000000003</v>
       </c>
       <c r="V12">
         <v>10</v>
       </c>
       <c r="W12">
+        <f t="shared" si="8"/>
         <v>1.999475712</v>
       </c>
     </row>
@@ -1311,35 +1328,35 @@
         <v>6</v>
       </c>
       <c r="K13" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1.68</v>
       </c>
       <c r="L13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>5.04</v>
       </c>
       <c r="M13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0.92159999999999997</v>
       </c>
       <c r="N13">
-        <f>AVERAGEIFS(K:K,H:H,H13)</f>
+        <f t="shared" si="0"/>
         <v>1.68</v>
       </c>
       <c r="O13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>6</v>
       </c>
       <c r="P13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>-0.96</v>
       </c>
       <c r="Q13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>-5.76</v>
       </c>
       <c r="R13">
-        <f>SUMIFS(Q:Q,H:H,H13)</f>
+        <f t="shared" si="1"/>
         <v>-19.200000000000003</v>
       </c>
     </row>
@@ -1356,35 +1373,35 @@
         <v>8</v>
       </c>
       <c r="K14" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1.68</v>
       </c>
       <c r="L14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>6.72</v>
       </c>
       <c r="M14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1.6384000000000007</v>
       </c>
       <c r="N14">
-        <f>AVERAGEIFS(K:K,H:H,H14)</f>
+        <f t="shared" si="0"/>
         <v>1.68</v>
       </c>
       <c r="O14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>8</v>
       </c>
       <c r="P14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>-1.2800000000000002</v>
       </c>
       <c r="Q14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>-10.240000000000002</v>
       </c>
       <c r="R14">
-        <f>SUMIFS(Q:Q,H:H,H14)</f>
+        <f t="shared" si="1"/>
         <v>-19.200000000000003</v>
       </c>
     </row>
@@ -1401,35 +1418,35 @@
         <v>2</v>
       </c>
       <c r="K15" s="1">
-        <f t="shared" ref="K15:K42" si="12">K11-$E$3*R11</f>
+        <f t="shared" ref="K15:K42" si="16">K11-$E$3*R11</f>
         <v>1.8719999999999999</v>
       </c>
       <c r="L15">
-        <f t="shared" ref="L15:L42" si="13">K15*I15</f>
+        <f t="shared" ref="L15:L42" si="17">K15*I15</f>
         <v>1.8719999999999999</v>
       </c>
       <c r="M15">
-        <f t="shared" ref="M15:M42" si="14">(J15-L15)^2</f>
+        <f t="shared" ref="M15:M42" si="18">(J15-L15)^2</f>
         <v>1.638400000000003E-2</v>
       </c>
       <c r="N15">
-        <f>AVERAGEIFS(K:K,H:H,H15)</f>
+        <f t="shared" si="0"/>
         <v>1.8719999999999999</v>
       </c>
       <c r="O15">
-        <f t="shared" ref="O15:O42" si="15">2*I15</f>
+        <f t="shared" ref="O15:O42" si="19">2*I15</f>
         <v>2</v>
       </c>
       <c r="P15">
-        <f t="shared" ref="P15:P42" si="16">L15-J15</f>
+        <f t="shared" ref="P15:P42" si="20">L15-J15</f>
         <v>-0.12800000000000011</v>
       </c>
       <c r="Q15">
-        <f t="shared" ref="Q15:Q42" si="17">O15*P15</f>
+        <f t="shared" ref="Q15:Q42" si="21">O15*P15</f>
         <v>-0.25600000000000023</v>
       </c>
       <c r="R15">
-        <f>SUMIFS(Q:Q,H:H,H15)</f>
+        <f t="shared" si="1"/>
         <v>-7.6800000000000068</v>
       </c>
     </row>
@@ -1446,35 +1463,35 @@
         <v>4</v>
       </c>
       <c r="K16" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>1.8719999999999999</v>
       </c>
       <c r="L16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>3.7439999999999998</v>
       </c>
       <c r="M16">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>6.5536000000000122E-2</v>
       </c>
       <c r="N16">
-        <f>AVERAGEIFS(K:K,H:H,H16)</f>
+        <f t="shared" si="0"/>
         <v>1.8719999999999999</v>
       </c>
       <c r="O16">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>4</v>
       </c>
       <c r="P16">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>-0.25600000000000023</v>
       </c>
       <c r="Q16">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>-1.0240000000000009</v>
       </c>
       <c r="R16">
-        <f>SUMIFS(Q:Q,H:H,H16)</f>
+        <f t="shared" si="1"/>
         <v>-7.6800000000000068</v>
       </c>
     </row>
@@ -1491,35 +1508,35 @@
         <v>6</v>
       </c>
       <c r="K17" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>1.8719999999999999</v>
       </c>
       <c r="L17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>5.6159999999999997</v>
       </c>
       <c r="M17">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.14745600000000025</v>
       </c>
       <c r="N17">
-        <f>AVERAGEIFS(K:K,H:H,H17)</f>
+        <f t="shared" si="0"/>
         <v>1.8719999999999999</v>
       </c>
       <c r="O17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>6</v>
       </c>
       <c r="P17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>-0.38400000000000034</v>
       </c>
       <c r="Q17">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>-2.304000000000002</v>
       </c>
       <c r="R17">
-        <f>SUMIFS(Q:Q,H:H,H17)</f>
+        <f t="shared" si="1"/>
         <v>-7.6800000000000068</v>
       </c>
     </row>
@@ -1536,35 +1553,35 @@
         <v>8</v>
       </c>
       <c r="K18" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>1.8719999999999999</v>
       </c>
       <c r="L18">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>7.4879999999999995</v>
       </c>
       <c r="M18">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.26214400000000049</v>
       </c>
       <c r="N18">
-        <f>AVERAGEIFS(K:K,H:H,H18)</f>
+        <f t="shared" si="0"/>
         <v>1.8719999999999999</v>
       </c>
       <c r="O18">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>8</v>
       </c>
       <c r="P18">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>-0.51200000000000045</v>
       </c>
       <c r="Q18">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>-4.0960000000000036</v>
       </c>
       <c r="R18">
-        <f>SUMIFS(Q:Q,H:H,H18)</f>
+        <f t="shared" si="1"/>
         <v>-7.6800000000000068</v>
       </c>
     </row>
@@ -1581,35 +1598,35 @@
         <v>2</v>
       </c>
       <c r="K19" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>1.9487999999999999</v>
       </c>
       <c r="L19">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>1.9487999999999999</v>
       </c>
       <c r="M19">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>2.6214400000000139E-3</v>
       </c>
       <c r="N19">
-        <f>AVERAGEIFS(K:K,H:H,H19)</f>
+        <f t="shared" si="0"/>
         <v>1.9487999999999999</v>
       </c>
       <c r="O19">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>2</v>
       </c>
       <c r="P19">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>-5.1200000000000134E-2</v>
       </c>
       <c r="Q19">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>-0.10240000000000027</v>
       </c>
       <c r="R19">
-        <f>SUMIFS(Q:Q,H:H,H19)</f>
+        <f t="shared" si="1"/>
         <v>-3.0720000000000107</v>
       </c>
     </row>
@@ -1626,35 +1643,35 @@
         <v>4</v>
       </c>
       <c r="K20" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>1.9487999999999999</v>
       </c>
       <c r="L20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>3.8975999999999997</v>
       </c>
       <c r="M20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>1.0485760000000056E-2</v>
       </c>
       <c r="N20">
-        <f>AVERAGEIFS(K:K,H:H,H20)</f>
+        <f t="shared" si="0"/>
         <v>1.9487999999999999</v>
       </c>
       <c r="O20">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>4</v>
       </c>
       <c r="P20">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>-0.10240000000000027</v>
       </c>
       <c r="Q20">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>-0.40960000000000107</v>
       </c>
       <c r="R20">
-        <f>SUMIFS(Q:Q,H:H,H20)</f>
+        <f t="shared" si="1"/>
         <v>-3.0720000000000107</v>
       </c>
     </row>
@@ -1671,35 +1688,35 @@
         <v>6</v>
       </c>
       <c r="K21" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>1.9487999999999999</v>
       </c>
       <c r="L21">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>5.8463999999999992</v>
       </c>
       <c r="M21">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>2.359296000000026E-2</v>
       </c>
       <c r="N21">
-        <f>AVERAGEIFS(K:K,H:H,H21)</f>
+        <f t="shared" si="0"/>
         <v>1.9487999999999999</v>
       </c>
       <c r="O21">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>6</v>
       </c>
       <c r="P21">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>-0.15360000000000085</v>
       </c>
       <c r="Q21">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>-0.92160000000000508</v>
       </c>
       <c r="R21">
-        <f>SUMIFS(Q:Q,H:H,H21)</f>
+        <f t="shared" si="1"/>
         <v>-3.0720000000000107</v>
       </c>
     </row>
@@ -1716,35 +1733,35 @@
         <v>8</v>
       </c>
       <c r="K22" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>1.9487999999999999</v>
       </c>
       <c r="L22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>7.7951999999999995</v>
       </c>
       <c r="M22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>4.1943040000000223E-2</v>
       </c>
       <c r="N22">
-        <f>AVERAGEIFS(K:K,H:H,H22)</f>
+        <f t="shared" si="0"/>
         <v>1.9487999999999999</v>
       </c>
       <c r="O22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>8</v>
       </c>
       <c r="P22">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>-0.20480000000000054</v>
       </c>
       <c r="Q22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>-1.6384000000000043</v>
       </c>
       <c r="R22">
-        <f>SUMIFS(Q:Q,H:H,H22)</f>
+        <f t="shared" si="1"/>
         <v>-3.0720000000000107</v>
       </c>
     </row>
@@ -1761,35 +1778,35 @@
         <v>2</v>
       </c>
       <c r="K23" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>1.9795199999999999</v>
       </c>
       <c r="L23">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>1.9795199999999999</v>
       </c>
       <c r="M23">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>4.1943040000000218E-4</v>
       </c>
       <c r="N23">
-        <f>AVERAGEIFS(K:K,H:H,H23)</f>
+        <f t="shared" si="0"/>
         <v>1.9795199999999999</v>
       </c>
       <c r="O23">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>2</v>
       </c>
       <c r="P23">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>-2.0480000000000054E-2</v>
       </c>
       <c r="Q23">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>-4.0960000000000107E-2</v>
       </c>
       <c r="R23">
-        <f>SUMIFS(Q:Q,H:H,H23)</f>
+        <f t="shared" si="1"/>
         <v>-1.2288000000000032</v>
       </c>
     </row>
@@ -1806,35 +1823,35 @@
         <v>4</v>
       </c>
       <c r="K24" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>1.9795199999999999</v>
       </c>
       <c r="L24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>3.9590399999999999</v>
       </c>
       <c r="M24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>1.6777216000000087E-3</v>
       </c>
       <c r="N24">
-        <f>AVERAGEIFS(K:K,H:H,H24)</f>
+        <f t="shared" si="0"/>
         <v>1.9795199999999999</v>
       </c>
       <c r="O24">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>4</v>
       </c>
       <c r="P24">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>-4.0960000000000107E-2</v>
       </c>
       <c r="Q24">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>-0.16384000000000043</v>
       </c>
       <c r="R24">
-        <f>SUMIFS(Q:Q,H:H,H24)</f>
+        <f t="shared" si="1"/>
         <v>-1.2288000000000032</v>
       </c>
     </row>
@@ -1851,35 +1868,35 @@
         <v>6</v>
       </c>
       <c r="K25" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>1.9795199999999999</v>
       </c>
       <c r="L25">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>5.9385599999999998</v>
       </c>
       <c r="M25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>3.7748736000000199E-3</v>
       </c>
       <c r="N25">
-        <f>AVERAGEIFS(K:K,H:H,H25)</f>
+        <f t="shared" si="0"/>
         <v>1.9795199999999999</v>
       </c>
       <c r="O25">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>6</v>
       </c>
       <c r="P25">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>-6.1440000000000161E-2</v>
       </c>
       <c r="Q25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>-0.36864000000000097</v>
       </c>
       <c r="R25">
-        <f>SUMIFS(Q:Q,H:H,H25)</f>
+        <f t="shared" si="1"/>
         <v>-1.2288000000000032</v>
       </c>
     </row>
@@ -1896,35 +1913,35 @@
         <v>8</v>
       </c>
       <c r="K26" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>1.9795199999999999</v>
       </c>
       <c r="L26">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>7.9180799999999998</v>
       </c>
       <c r="M26">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>6.7108864000000349E-3</v>
       </c>
       <c r="N26">
-        <f>AVERAGEIFS(K:K,H:H,H26)</f>
+        <f t="shared" si="0"/>
         <v>1.9795199999999999</v>
       </c>
       <c r="O26">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>8</v>
       </c>
       <c r="P26">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>-8.1920000000000215E-2</v>
       </c>
       <c r="Q26">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>-0.65536000000000172</v>
       </c>
       <c r="R26">
-        <f>SUMIFS(Q:Q,H:H,H26)</f>
+        <f t="shared" si="1"/>
         <v>-1.2288000000000032</v>
       </c>
     </row>
@@ -1941,35 +1958,35 @@
         <v>2</v>
       </c>
       <c r="K27" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>1.991808</v>
       </c>
       <c r="L27">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>1.991808</v>
       </c>
       <c r="M27">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>6.7108863999999619E-5</v>
       </c>
       <c r="N27">
-        <f>AVERAGEIFS(K:K,H:H,H27)</f>
+        <f t="shared" si="0"/>
         <v>1.991808</v>
       </c>
       <c r="O27">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>2</v>
       </c>
       <c r="P27">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>-8.1919999999999771E-3</v>
       </c>
       <c r="Q27">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>-1.6383999999999954E-2</v>
       </c>
       <c r="R27">
-        <f>SUMIFS(Q:Q,H:H,H27)</f>
+        <f t="shared" si="1"/>
         <v>-0.49151999999999729</v>
       </c>
     </row>
@@ -1986,35 +2003,35 @@
         <v>4</v>
       </c>
       <c r="K28" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>1.991808</v>
       </c>
       <c r="L28">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>3.983616</v>
       </c>
       <c r="M28">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>2.6843545599999848E-4</v>
       </c>
       <c r="N28">
-        <f>AVERAGEIFS(K:K,H:H,H28)</f>
+        <f t="shared" si="0"/>
         <v>1.991808</v>
       </c>
       <c r="O28">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>4</v>
       </c>
       <c r="P28">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>-1.6383999999999954E-2</v>
       </c>
       <c r="Q28">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>-6.5535999999999817E-2</v>
       </c>
       <c r="R28">
-        <f>SUMIFS(Q:Q,H:H,H28)</f>
+        <f t="shared" si="1"/>
         <v>-0.49151999999999729</v>
       </c>
     </row>
@@ -2031,35 +2048,35 @@
         <v>6</v>
       </c>
       <c r="K29" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>1.991808</v>
       </c>
       <c r="L29">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>5.9754240000000003</v>
       </c>
       <c r="M29">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>6.0397977599998566E-4</v>
       </c>
       <c r="N29">
-        <f>AVERAGEIFS(K:K,H:H,H29)</f>
+        <f t="shared" si="0"/>
         <v>1.991808</v>
       </c>
       <c r="O29">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>6</v>
       </c>
       <c r="P29">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>-2.4575999999999709E-2</v>
       </c>
       <c r="Q29">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>-0.14745599999999826</v>
       </c>
       <c r="R29">
-        <f>SUMIFS(Q:Q,H:H,H29)</f>
+        <f t="shared" si="1"/>
         <v>-0.49151999999999729</v>
       </c>
     </row>
@@ -2076,35 +2093,35 @@
         <v>8</v>
       </c>
       <c r="K30" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>1.991808</v>
       </c>
       <c r="L30">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>7.9672320000000001</v>
       </c>
       <c r="M30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>1.0737418239999939E-3</v>
       </c>
       <c r="N30">
-        <f>AVERAGEIFS(K:K,H:H,H30)</f>
+        <f t="shared" si="0"/>
         <v>1.991808</v>
       </c>
       <c r="O30">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>8</v>
       </c>
       <c r="P30">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>-3.2767999999999908E-2</v>
       </c>
       <c r="Q30">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>-0.26214399999999927</v>
       </c>
       <c r="R30">
-        <f>SUMIFS(Q:Q,H:H,H30)</f>
+        <f t="shared" si="1"/>
         <v>-0.49151999999999729</v>
       </c>
     </row>
@@ -2121,35 +2138,35 @@
         <v>2</v>
       </c>
       <c r="K31" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>1.9967231999999999</v>
       </c>
       <c r="L31">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>1.9967231999999999</v>
       </c>
       <c r="M31">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>1.0737418240000522E-5</v>
       </c>
       <c r="N31">
-        <f>AVERAGEIFS(K:K,H:H,H31)</f>
+        <f t="shared" si="0"/>
         <v>1.9967231999999999</v>
       </c>
       <c r="O31">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>2</v>
       </c>
       <c r="P31">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>-3.2768000000000796E-3</v>
       </c>
       <c r="Q31">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>-6.5536000000001593E-3</v>
       </c>
       <c r="R31">
-        <f>SUMIFS(Q:Q,H:H,H31)</f>
+        <f t="shared" si="1"/>
         <v>-0.19660800000000478</v>
       </c>
     </row>
@@ -2166,35 +2183,35 @@
         <v>4</v>
       </c>
       <c r="K32" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>1.9967231999999999</v>
       </c>
       <c r="L32">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>3.9934463999999998</v>
       </c>
       <c r="M32">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>4.2949672960002087E-5</v>
       </c>
       <c r="N32">
-        <f>AVERAGEIFS(K:K,H:H,H32)</f>
+        <f t="shared" si="0"/>
         <v>1.9967231999999999</v>
       </c>
       <c r="O32">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>4</v>
       </c>
       <c r="P32">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>-6.5536000000001593E-3</v>
       </c>
       <c r="Q32">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>-2.6214400000000637E-2</v>
       </c>
       <c r="R32">
-        <f>SUMIFS(Q:Q,H:H,H32)</f>
+        <f t="shared" si="1"/>
         <v>-0.19660800000000478</v>
       </c>
     </row>
@@ -2211,35 +2228,35 @@
         <v>6</v>
       </c>
       <c r="K33" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>1.9967231999999999</v>
       </c>
       <c r="L33">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>5.9901695999999998</v>
       </c>
       <c r="M33">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>9.6636764160004698E-5</v>
       </c>
       <c r="N33">
-        <f>AVERAGEIFS(K:K,H:H,H33)</f>
+        <f t="shared" si="0"/>
         <v>1.9967231999999999</v>
       </c>
       <c r="O33">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>6</v>
       </c>
       <c r="P33">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>-9.8304000000002389E-3</v>
       </c>
       <c r="Q33">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>-5.8982400000001434E-2</v>
       </c>
       <c r="R33">
-        <f>SUMIFS(Q:Q,H:H,H33)</f>
+        <f t="shared" si="1"/>
         <v>-0.19660800000000478</v>
       </c>
     </row>
@@ -2256,35 +2273,35 @@
         <v>8</v>
       </c>
       <c r="K34" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>1.9967231999999999</v>
       </c>
       <c r="L34">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>7.9868927999999997</v>
       </c>
       <c r="M34">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>1.7179869184000835E-4</v>
       </c>
       <c r="N34">
-        <f>AVERAGEIFS(K:K,H:H,H34)</f>
+        <f t="shared" si="0"/>
         <v>1.9967231999999999</v>
       </c>
       <c r="O34">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>8</v>
       </c>
       <c r="P34">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>-1.3107200000000319E-2</v>
       </c>
       <c r="Q34">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>-0.10485760000000255</v>
       </c>
       <c r="R34">
-        <f>SUMIFS(Q:Q,H:H,H34)</f>
+        <f t="shared" si="1"/>
         <v>-0.19660800000000478</v>
       </c>
     </row>
@@ -2301,35 +2318,35 @@
         <v>2</v>
       </c>
       <c r="K35" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>1.99868928</v>
       </c>
       <c r="L35">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>1.99868928</v>
       </c>
       <c r="M35">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>1.7179869183999671E-6</v>
       </c>
       <c r="N35">
-        <f>AVERAGEIFS(K:K,H:H,H35)</f>
+        <f t="shared" si="0"/>
         <v>1.99868928</v>
       </c>
       <c r="O35">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>2</v>
       </c>
       <c r="P35">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>-1.3107199999999875E-3</v>
       </c>
       <c r="Q35">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>-2.6214399999999749E-3</v>
       </c>
       <c r="R35">
-        <f>SUMIFS(Q:Q,H:H,H35)</f>
+        <f t="shared" si="1"/>
         <v>-7.8643199999997915E-2</v>
       </c>
     </row>
@@ -2346,35 +2363,35 @@
         <v>4</v>
       </c>
       <c r="K36" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>1.99868928</v>
       </c>
       <c r="L36">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>3.99737856</v>
       </c>
       <c r="M36">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>6.8719476735998686E-6</v>
       </c>
       <c r="N36">
-        <f>AVERAGEIFS(K:K,H:H,H36)</f>
+        <f t="shared" si="0"/>
         <v>1.99868928</v>
       </c>
       <c r="O36">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>4</v>
       </c>
       <c r="P36">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>-2.6214399999999749E-3</v>
       </c>
       <c r="Q36">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>-1.04857599999999E-2</v>
       </c>
       <c r="R36">
-        <f>SUMIFS(Q:Q,H:H,H36)</f>
+        <f t="shared" si="1"/>
         <v>-7.8643199999997915E-2</v>
       </c>
     </row>
@@ -2391,35 +2408,35 @@
         <v>6</v>
       </c>
       <c r="K37" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>1.99868928</v>
       </c>
       <c r="L37">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>5.9960678400000003</v>
       </c>
       <c r="M37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>1.5461882265597957E-5</v>
       </c>
       <c r="N37">
-        <f>AVERAGEIFS(K:K,H:H,H37)</f>
+        <f t="shared" si="0"/>
         <v>1.99868928</v>
       </c>
       <c r="O37">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>6</v>
       </c>
       <c r="P37">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>-3.9321599999997403E-3</v>
       </c>
       <c r="Q37">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>-2.3592959999998442E-2</v>
       </c>
       <c r="R37">
-        <f>SUMIFS(Q:Q,H:H,H37)</f>
+        <f t="shared" si="1"/>
         <v>-7.8643199999997915E-2</v>
       </c>
     </row>
@@ -2436,35 +2453,35 @@
         <v>8</v>
       </c>
       <c r="K38" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>1.99868928</v>
       </c>
       <c r="L38">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>7.9947571200000001</v>
       </c>
       <c r="M38">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>2.7487790694399474E-5</v>
       </c>
       <c r="N38">
-        <f>AVERAGEIFS(K:K,H:H,H38)</f>
+        <f t="shared" si="0"/>
         <v>1.99868928</v>
       </c>
       <c r="O38">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>8</v>
       </c>
       <c r="P38">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>-5.2428799999999498E-3</v>
       </c>
       <c r="Q38">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>-4.1943039999999598E-2</v>
       </c>
       <c r="R38">
-        <f>SUMIFS(Q:Q,H:H,H38)</f>
+        <f t="shared" si="1"/>
         <v>-7.8643199999997915E-2</v>
       </c>
     </row>
@@ -2481,35 +2498,35 @@
         <v>2</v>
       </c>
       <c r="K39" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>1.999475712</v>
       </c>
       <c r="L39">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>1.999475712</v>
       </c>
       <c r="M39">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>2.7487790694404131E-7</v>
       </c>
       <c r="N39">
-        <f>AVERAGEIFS(K:K,H:H,H39)</f>
+        <f t="shared" si="0"/>
         <v>1.999475712</v>
       </c>
       <c r="O39">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>2</v>
       </c>
       <c r="P39">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>-5.2428800000003939E-4</v>
       </c>
       <c r="Q39">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>-1.0485760000000788E-3</v>
       </c>
       <c r="R39">
-        <f>SUMIFS(Q:Q,H:H,H39)</f>
+        <f t="shared" si="1"/>
         <v>-3.1457280000001031E-2</v>
       </c>
     </row>
@@ -2526,35 +2543,35 @@
         <v>4</v>
       </c>
       <c r="K40" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>1.999475712</v>
       </c>
       <c r="L40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>3.9989514239999999</v>
       </c>
       <c r="M40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>1.0995116277761653E-6</v>
       </c>
       <c r="N40">
-        <f>AVERAGEIFS(K:K,H:H,H40)</f>
+        <f t="shared" si="0"/>
         <v>1.999475712</v>
       </c>
       <c r="O40">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>4</v>
       </c>
       <c r="P40">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>-1.0485760000000788E-3</v>
       </c>
       <c r="Q40">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>-4.1943040000003151E-3</v>
       </c>
       <c r="R40">
-        <f>SUMIFS(Q:Q,H:H,H40)</f>
+        <f t="shared" si="1"/>
         <v>-3.1457280000001031E-2</v>
       </c>
     </row>
@@ -2571,35 +2588,35 @@
         <v>6</v>
       </c>
       <c r="K41" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>1.999475712</v>
       </c>
       <c r="L41">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>5.9984271360000001</v>
       </c>
       <c r="M41">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>2.4739011624956734E-6</v>
       </c>
       <c r="N41">
-        <f>AVERAGEIFS(K:K,H:H,H41)</f>
+        <f t="shared" si="0"/>
         <v>1.999475712</v>
       </c>
       <c r="O41">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>6</v>
       </c>
       <c r="P41">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>-1.5728639999998961E-3</v>
       </c>
       <c r="Q41">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>-9.4371839999993767E-3</v>
       </c>
       <c r="R41">
-        <f>SUMIFS(Q:Q,H:H,H41)</f>
+        <f t="shared" si="1"/>
         <v>-3.1457280000001031E-2</v>
       </c>
     </row>
@@ -2616,35 +2633,35 @@
         <v>8</v>
       </c>
       <c r="K42" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>1.999475712</v>
       </c>
       <c r="L42">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>7.9979028479999998</v>
       </c>
       <c r="M42">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>4.398046511104661E-6</v>
       </c>
       <c r="N42">
-        <f>AVERAGEIFS(K:K,H:H,H42)</f>
+        <f t="shared" si="0"/>
         <v>1.999475712</v>
       </c>
       <c r="O42">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>8</v>
       </c>
       <c r="P42">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>-2.0971520000001576E-3</v>
       </c>
       <c r="Q42">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>-1.677721600000126E-2</v>
       </c>
       <c r="R42">
-        <f>SUMIFS(Q:Q,H:H,H42)</f>
+        <f t="shared" si="1"/>
         <v>-3.1457280000001031E-2</v>
       </c>
     </row>
@@ -2684,12 +2701,60 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <f>EXP(A2)</f>
+        <v>54.598150033144236</v>
+      </c>
+      <c r="C2">
+        <f>B2/$B$4</f>
+        <v>0.95257412682243314</v>
+      </c>
+      <c r="D2">
+        <f>-1/2*LN(C2)</f>
+        <v>2.4293675786871069E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <f>EXP(A3)</f>
+        <v>2.7182818284590451</v>
+      </c>
+      <c r="C3">
+        <f>B3/$B$4</f>
+        <v>4.7425873177566781E-2</v>
+      </c>
+      <c r="D3">
+        <f>-1/2*LN(C3)</f>
+        <v>1.524293675786871</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <f>SUM(B2:B3)</f>
+        <v>57.316431861603284</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
